--- a/SPP_SB_C1.xlsx
+++ b/SPP_SB_C1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         <v>8350</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2134710199898109</v>
+        <v>0.2324120789999142</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -502,7 +502,7 @@
         <v>9603</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2724883010378107</v>
+        <v>0.262815038964618</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -526,7 +526,7 @@
         <v>8618</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2152797110029496</v>
+        <v>0.2075901299831457</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
@@ -549,15 +549,937 @@
       <c r="C5" t="n">
         <v>30144</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2.791672656021547</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HT05(c2p2)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2418</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30470</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.026607957028318</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HT06(c2p3)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2416</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30336</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.992758798005525</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HT07(c3p1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3677</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60699</v>
+      </c>
+      <c r="D8" t="n">
+        <v>173.0721128300065</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HT08(c3p2)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C9" t="n">
+        <v>65880</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80.50962307798909</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HT09(c3p3)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3681</v>
+      </c>
+      <c r="C10" t="n">
+        <v>61006</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.27221946499776</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CGCUT01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>900</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>34.12114881700836</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CGCUT02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3926</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64832</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>116</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGCUT03</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>90225</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5074018</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1571</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GCUT01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7504</v>
+      </c>
+      <c r="C14" t="n">
+        <v>69419</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.94187110196799</v>
+      </c>
+      <c r="E14" t="n">
+        <v>735</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GCUT02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>26943</v>
+      </c>
+      <c r="C15" t="n">
+        <v>505477</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GCUT03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>53654</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1529989</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1793</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GCUT04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>162970</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7789656</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3147</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGCUT01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>409</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2084</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05041869898559526</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGCUT02</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8722</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.567315160995349</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGCUT03</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13925</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NGCUT04</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>201</v>
+      </c>
+      <c r="C21" t="n">
+        <v>607</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.006244420015718788</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NGCUT05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6009</v>
+      </c>
+      <c r="D22" t="n">
+        <v>153.8115937099792</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NGCUT06</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>851</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6048</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2053158599883318</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NGCUT07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>316</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1308</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02163102000486106</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NGCUT08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>858</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6202</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0205624079681</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NGCUT09</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1689</v>
+      </c>
+      <c r="C26" t="n">
+        <v>18053</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17.80839455401292</v>
+      </c>
+      <c r="E26" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGCUT10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1106</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9593</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.101251796993893</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGCUT11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1453</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14205</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9844896480208263</v>
+      </c>
+      <c r="E28" t="n">
+        <v>59</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NGCUT12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2827</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40055</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>80</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BENG01</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18202</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.125942678016145</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BENG02</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6072</v>
+      </c>
+      <c r="C31" t="n">
+        <v>117376</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>58</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BENG03</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13143</v>
+      </c>
+      <c r="C32" t="n">
+        <v>362657</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>86</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BENG04</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>22658</v>
+      </c>
+      <c r="C33" t="n">
+        <v>799675</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>110</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BENG05</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>35032</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1520793</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>138</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BENG06</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5832</v>
+      </c>
+      <c r="C35" t="n">
+        <v>108523</v>
+      </c>
+      <c r="D35" t="n">
+        <v>15.39249768998707</v>
+      </c>
+      <c r="E35" t="n">
+        <v>36</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BENG07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>20578</v>
+      </c>
+      <c r="C36" t="n">
+        <v>636310</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>69</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BENG08</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>44919</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1965547</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>108</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BENG09</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>76913</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4165720</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>135</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BENG10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>119757</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8034014</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>168</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HT10(c4p1)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9954</v>
+      </c>
+      <c r="C40" t="n">
+        <v>257871</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>64</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HT11(c4p2)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9938</v>
+      </c>
+      <c r="C41" t="n">
+        <v>256999</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HT12(c4p3)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9955</v>
+      </c>
+      <c r="C42" t="n">
+        <v>257880</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>61</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>

--- a/SPP_SB_C1.xlsx
+++ b/SPP_SB_C1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>CGCUT01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1015</v>
+        <v>948</v>
       </c>
       <c r="C2" t="n">
-        <v>8350</v>
+        <v>7180</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2324120789999142</v>
+        <v>0.2059410749934614</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -492,68 +492,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>CGCUT02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1117</v>
+        <v>3512</v>
       </c>
       <c r="C3" t="n">
-        <v>9603</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.262815038964618</v>
+        <v>56173</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>CGCUT03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1022</v>
+        <v>50855</v>
       </c>
       <c r="C4" t="n">
-        <v>8618</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2075901299831457</v>
+        <v>2653386</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HT04(c2p1)</t>
+          <t>GCUT01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2401</v>
+        <v>948</v>
       </c>
       <c r="C5" t="n">
-        <v>30144</v>
+        <v>7180</v>
       </c>
       <c r="D5" t="n">
-        <v>2.791672656021547</v>
+        <v>0.1922618050011806</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -564,92 +568,98 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HT05(c2p2)</t>
+          <t>GCUT02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2418</v>
+        <v>3512</v>
       </c>
       <c r="C6" t="n">
-        <v>30470</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.026607957028318</v>
+        <v>56173</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HT06(c2p3)</t>
+          <t>GCUT03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2416</v>
+        <v>50855</v>
       </c>
       <c r="C7" t="n">
-        <v>30336</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.992758798005525</v>
+        <v>2653386</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>720</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HT07(c3p1)</t>
+          <t>GCUT04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3677</v>
+        <v>157970</v>
       </c>
       <c r="C8" t="n">
-        <v>60699</v>
-      </c>
-      <c r="D8" t="n">
-        <v>173.0721128300065</v>
+        <v>7559532</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>3170</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HT08(c3p2)</t>
+          <t>NGCUT01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3890</v>
+        <v>439</v>
       </c>
       <c r="C9" t="n">
-        <v>65880</v>
+        <v>2331</v>
       </c>
       <c r="D9" t="n">
-        <v>80.50962307798909</v>
+        <v>0.204590444045607</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -660,17 +670,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HT09(c3p3)</t>
+          <t>NGCUT02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3681</v>
+        <v>1128</v>
       </c>
       <c r="C10" t="n">
-        <v>61006</v>
+        <v>9175</v>
       </c>
       <c r="D10" t="n">
-        <v>19.27221946499776</v>
+        <v>1.180646252003498</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -684,20 +694,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CGCUT01</t>
+          <t>NGCUT03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>900</v>
+        <v>1548</v>
       </c>
       <c r="C11" t="n">
-        <v>6462</v>
+        <v>14487</v>
       </c>
       <c r="D11" t="n">
-        <v>34.12114881700836</v>
+        <v>0.7267505369964056</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -708,72 +718,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CGCUT02</t>
+          <t>NGCUT04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3926</v>
+        <v>229</v>
       </c>
       <c r="C12" t="n">
-        <v>64832</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>756</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01574090000940487</v>
       </c>
       <c r="E12" t="n">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CGCUT03</t>
+          <t>NGCUT05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90225</v>
+        <v>877</v>
       </c>
       <c r="C13" t="n">
-        <v>5074018</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>6959</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1195591610157862</v>
       </c>
       <c r="E13" t="n">
-        <v>1571</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCUT01</t>
+          <t>NGCUT06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7504</v>
+        <v>941</v>
       </c>
       <c r="C14" t="n">
-        <v>69419</v>
+        <v>7461</v>
       </c>
       <c r="D14" t="n">
-        <v>3.94187110196799</v>
+        <v>18.40936502197292</v>
       </c>
       <c r="E14" t="n">
-        <v>735</v>
+        <v>31</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,98 +790,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCUT02</t>
+          <t>NGCUT07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26943</v>
+        <v>364</v>
       </c>
       <c r="C15" t="n">
-        <v>505477</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>1772</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03497614699881524</v>
       </c>
       <c r="E15" t="n">
-        <v>1330</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCUT03</t>
+          <t>NGCUT08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53654</v>
+        <v>832</v>
       </c>
       <c r="C16" t="n">
-        <v>1529989</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>6392</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7658176029799506</v>
       </c>
       <c r="E16" t="n">
-        <v>1793</v>
+        <v>33</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GCUT04</t>
+          <t>NGCUT09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>162970</v>
+        <v>1635</v>
       </c>
       <c r="C17" t="n">
-        <v>7789656</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>17967</v>
+      </c>
+      <c r="D17" t="n">
+        <v>135.3543927549617</v>
       </c>
       <c r="E17" t="n">
-        <v>3147</v>
+        <v>51</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NGCUT01</t>
+          <t>NGCUT10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>409</v>
+        <v>1353</v>
       </c>
       <c r="C18" t="n">
-        <v>2084</v>
+        <v>12027</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05041869898559526</v>
+        <v>1.611881256045308</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -886,20 +886,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NGCUT02</t>
+          <t>NGCUT11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1094</v>
+        <v>1348</v>
       </c>
       <c r="C19" t="n">
-        <v>8722</v>
+        <v>12681</v>
       </c>
       <c r="D19" t="n">
-        <v>7.567315160995349</v>
+        <v>0.580080125015229</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -910,14 +910,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NGCUT03</t>
+          <t>NGCUT12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1548</v>
+        <v>2981</v>
       </c>
       <c r="C20" t="n">
-        <v>13925</v>
+        <v>42632</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -936,20 +936,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NGCUT04</t>
+          <t>BENG01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>201</v>
+        <v>1685</v>
       </c>
       <c r="C21" t="n">
-        <v>607</v>
+        <v>18339</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006244420015718788</v>
+        <v>2.53759134496795</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -960,20 +960,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NGCUT05</t>
+          <t>BENG02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>863</v>
+        <v>6072</v>
       </c>
       <c r="C22" t="n">
-        <v>6009</v>
+        <v>118238</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8115937099792</v>
+        <v>379.7704730360419</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -984,92 +984,98 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NGCUT06</t>
+          <t>BENG03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>851</v>
+        <v>13143</v>
       </c>
       <c r="C23" t="n">
-        <v>6048</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2053158599883318</v>
+        <v>364715</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NGCUT07</t>
+          <t>BENG04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>316</v>
+        <v>22658</v>
       </c>
       <c r="C24" t="n">
-        <v>1308</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.02163102000486106</v>
+        <v>803030</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NGCUT08</t>
+          <t>BENG05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>858</v>
+        <v>35032</v>
       </c>
       <c r="C25" t="n">
-        <v>6202</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.0205624079681</v>
+        <v>1525520</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NGCUT09</t>
+          <t>BENG06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1689</v>
+        <v>5832</v>
       </c>
       <c r="C26" t="n">
-        <v>18053</v>
+        <v>108473</v>
       </c>
       <c r="D26" t="n">
-        <v>17.80839455401292</v>
+        <v>5.211664292030036</v>
       </c>
       <c r="E26" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1080,62 +1086,66 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NGCUT10</t>
+          <t>BENG07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1106</v>
+        <v>20578</v>
       </c>
       <c r="C27" t="n">
-        <v>9593</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5.101251796993893</v>
+        <v>636180</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGCUT11</t>
+          <t>BENG08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1453</v>
+        <v>44919</v>
       </c>
       <c r="C28" t="n">
-        <v>14205</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9844896480208263</v>
+        <v>1965314</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGCUT12</t>
+          <t>BENG09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2827</v>
+        <v>76593</v>
       </c>
       <c r="C29" t="n">
-        <v>40055</v>
+        <v>4114192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1143,7 +1153,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1154,332 +1164,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BENG01</t>
+          <t>BENG10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1685</v>
+        <v>118557</v>
       </c>
       <c r="C30" t="n">
-        <v>18202</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.125942678016145</v>
+        <v>7793618</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BENG02</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6072</v>
-      </c>
-      <c r="C31" t="n">
-        <v>117376</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>58</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BENG03</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>13143</v>
-      </c>
-      <c r="C32" t="n">
-        <v>362657</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>86</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BENG04</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>22658</v>
-      </c>
-      <c r="C33" t="n">
-        <v>799675</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>110</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BENG05</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>35032</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1520793</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>138</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BENG06</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5832</v>
-      </c>
-      <c r="C35" t="n">
-        <v>108523</v>
-      </c>
-      <c r="D35" t="n">
-        <v>15.39249768998707</v>
-      </c>
-      <c r="E35" t="n">
-        <v>36</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BENG07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>20578</v>
-      </c>
-      <c r="C36" t="n">
-        <v>636310</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>69</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BENG08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>44919</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1965547</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>108</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BENG09</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>76913</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4165720</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>135</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BENG10</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>119757</v>
-      </c>
-      <c r="C39" t="n">
-        <v>8034014</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>168</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HT10(c4p1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>9954</v>
-      </c>
-      <c r="C40" t="n">
-        <v>257871</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>64</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HT11(c4p2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>9938</v>
-      </c>
-      <c r="C41" t="n">
-        <v>256999</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>61</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HT12(c4p3)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>9955</v>
-      </c>
-      <c r="C42" t="n">
-        <v>257880</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>61</v>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>
